--- a/lukas_excel.xlsx
+++ b/lukas_excel.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luky\Desktop\Lukas\DTU\Introduction to Machine Learning\Project\Project2_ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campuscvut-my.sharepoint.com/personal/maleklu6_cvut_cz/Documents/Zaloha/Lukas/DTU/Introduction to Machine Learning/Project/Project2_ML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A32C49-2483-4947-BBC4-3C3BEBDC27D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{64A32C49-2483-4947-BBC4-3C3BEBDC27D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E47F49C8-0DC6-4A76-A05B-006F8649A990}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{04EE437A-2BC5-40BF-B95B-09808A726511}"/>
+    <workbookView xWindow="7305" yWindow="3075" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{04EE437A-2BC5-40BF-B95B-09808A726511}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>KNN</t>
   </si>
@@ -140,13 +141,80 @@
       <t>Test</t>
     </r>
   </si>
+  <si>
+    <t>Confidence Interval</t>
+  </si>
+  <si>
+    <t>P-values</t>
+  </si>
+  <si>
+    <t>KNN-BASELINE</t>
+  </si>
+  <si>
+    <t>TREE - BASELINE</t>
+  </si>
+  <si>
+    <t>SVM - BASELINE</t>
+  </si>
+  <si>
+    <t>KNN - LOG.REG.</t>
+  </si>
+  <si>
+    <t>LOG. REG. - BASELINE</t>
+  </si>
+  <si>
+    <t>TREE - LOG. REG.</t>
+  </si>
+  <si>
+    <t>SVM - LOG.REG.</t>
+  </si>
+  <si>
+    <t>KNN - SVM</t>
+  </si>
+  <si>
+    <t>TREE - SVM</t>
+  </si>
+  <si>
+    <t>KNN - TREE</t>
+  </si>
+  <si>
+    <t>(0.28 ; 0.61)</t>
+  </si>
+  <si>
+    <t>(0.096 ; 0.38)</t>
+  </si>
+  <si>
+    <t>(0.049 ; 0.369)</t>
+  </si>
+  <si>
+    <t>(-0.37 ; -0.05)</t>
+  </si>
+  <si>
+    <t>(0.258 ; 0.63)</t>
+  </si>
+  <si>
+    <t>(0.211 ; 0.616)</t>
+  </si>
+  <si>
+    <t>(-0.07 ; 0.13)</t>
+  </si>
+  <si>
+    <t>(-0.353 ; -0.004)</t>
+  </si>
+  <si>
+    <t>(-0.027 ; 0.087)</t>
+  </si>
+  <si>
+    <t>(-0.0827 ; 0.0827)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -188,7 +256,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +278,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -337,9 +417,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -372,6 +449,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -690,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59B5AB9-6C47-4A08-AEC9-5896EEF03078}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.85546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -700,7 +792,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
@@ -743,19 +835,19 @@
       <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>0.1037</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>0.16719999999999999</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="26">
         <v>0.1003</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <v>0.1003</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <v>0.54630000000000001</v>
       </c>
     </row>
@@ -763,19 +855,19 @@
       <c r="A4" s="11">
         <v>2</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <v>0.14380000000000001</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <v>0.1895</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="29">
         <v>0.12640000000000001</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <v>0.1338</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>0.55369999999999997</v>
       </c>
     </row>
@@ -783,19 +875,19 @@
       <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="28">
         <v>0.16719999999999999</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>0.189</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="29">
         <v>0.1152</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>0.1226</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="28">
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -803,19 +895,19 @@
       <c r="A6" s="11">
         <v>4</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="28">
         <v>0.1467</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="28">
         <v>0.17780000000000001</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="29">
         <v>0.1148</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>0.11849999999999999</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="28">
         <v>0.54810000000000003</v>
       </c>
     </row>
@@ -823,19 +915,19 @@
       <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="28">
         <v>0.15</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="28">
         <v>0.14810000000000001</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="29">
         <v>0.1037</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>0.1074</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="28">
         <v>0.55189999999999995</v>
       </c>
     </row>
@@ -843,19 +935,19 @@
       <c r="A8" s="11">
         <v>6</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="28">
         <v>0.12330000000000001</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="28">
         <v>0.16300000000000001</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="28">
         <v>0.12959999999999999</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="29">
         <v>0.11849999999999999</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="28">
         <v>0.55189999999999995</v>
       </c>
     </row>
@@ -863,19 +955,19 @@
       <c r="A9" s="11">
         <v>7</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="29">
         <v>0.1067</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="28">
         <v>0.18890000000000001</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="30">
         <v>0.1111</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>0.1148</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="28">
         <v>0.55189999999999995</v>
       </c>
     </row>
@@ -883,19 +975,19 @@
       <c r="A10" s="11">
         <v>8</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>0.12</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>0.1444</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>0.1148</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="29">
         <v>9.6299999999999997E-2</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="28">
         <v>0.55189999999999995</v>
       </c>
     </row>
@@ -903,19 +995,19 @@
       <c r="A11" s="11">
         <v>9</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="28">
         <v>0.1633</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="28">
         <v>0.14810000000000001</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="28">
         <v>0.11849999999999999</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="29">
         <v>0.1148</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="28">
         <v>0.55189999999999995</v>
       </c>
     </row>
@@ -923,19 +1015,19 @@
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>0.1963</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="28">
         <v>0.1148</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="29">
         <v>0.1111</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="28">
         <v>0.54810000000000003</v>
       </c>
     </row>
@@ -943,23 +1035,23 @@
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="31">
         <f>AVERAGE(B3:B12)</f>
         <v>0.13647000000000001</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="31">
         <f>AVERAGE(C3:C12)</f>
         <v>0.17122999999999999</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <f>AVERAGE(D3:D12)</f>
         <v>0.11491999999999999</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <f>AVERAGE(E3:E12)</f>
         <v>0.11381000000000001</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <f>AVERAGE(F3:F12)</f>
         <v>0.55056999999999989</v>
       </c>
@@ -972,6 +1064,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5B90F8-C97C-40E9-AC38-7D38ADCF0D7A}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15" style="22" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="37">
+        <v>6.0999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="37">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="37">
+        <v>2.7E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="37">
+        <v>1.31E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="37">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="37">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="37">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="37">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70E0EB6-B854-41C5-B0BB-5A97A36F8329}">
   <dimension ref="A1:H32"/>
   <sheetViews>
@@ -990,21 +1222,21 @@
       <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="25" t="s">
+      <c r="G1" s="33"/>
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1018,10 +1250,10 @@
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="21" t="s">
@@ -1030,7 +1262,7 @@
       <c r="G2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1343,10 +1575,10 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="23"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="18">
         <v>9.0090000000000003E-2</v>
       </c>
@@ -1394,10 +1626,10 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="22"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
